--- a/biology/Zoologie/Ardea/Ardea.xlsx
+++ b/biology/Zoologie/Ardea/Ardea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea est un genre de hérons présents dans une grande partie du monde.
 Carl von Linné a décrit ces oiseaux comme grands hérons, se rapportant à la grande taille de ces oiseaux, en général à 80 à 100 centimètres ou parfois plus. Ces grands hérons sont associés aux marécages où ils se nourrissent de poissons, de grenouilles et d'autres espèces aquatiques.
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Ardea cinerea – Héron cendré
@@ -527,9 +541,43 @@
 Ardea goliath – Héron goliath
 Ardea purpurea – Héron pourpré
 Ardea alba – Grande aigrette
-Ardea intermedia – Héron intermédiaire
-Espèces fossiles
-† Ardea bennuides
+Ardea intermedia – Héron intermédiaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ardea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>† Ardea bennuides
 † Ardea polkensis (Pliocène inférieur)
 † Ardea formosa
 † Ardea howardae
@@ -537,31 +585,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ardea</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ardea</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ardea cinerea
